--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumSuccess2025\selenium-framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8055FB47-D131-4886-AA44-01612067A450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365EB09-3831-4102-A05A-2D33860A4524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>pass1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>pass2</t>
   </si>
   <si>
     <t>admin@yourstore.com</t>
@@ -377,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,32 +385,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{6C905175-8EE5-4397-9609-673B605DD8AA}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6C905175-8EE5-4397-9609-673B605DD8AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumSuccess2025\selenium-framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365EB09-3831-4102-A05A-2D33860A4524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3112AD-E172-40D6-A215-1E1C8D344E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>pass2</t>
   </si>
 </sst>
 </file>
@@ -365,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,16 +397,32 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6C905175-8EE5-4397-9609-673B605DD8AA}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{6C905175-8EE5-4397-9609-673B605DD8AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumSuccess2025\selenium-framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3112AD-E172-40D6-A215-1E1C8D344E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB45472-F978-4CC1-88CC-7A0F3F20C542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>pass1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>pass2</t>
   </si>
 </sst>
 </file>
@@ -377,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,32 +385,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{6C905175-8EE5-4397-9609-673B605DD8AA}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6C905175-8EE5-4397-9609-673B605DD8AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
